--- a/evaluation/results/isolation_forest/augmented/none_1/split_1/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/none_1/split_1/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.8896797153024911</v>
+        <v>0.3558718861209965</v>
       </c>
       <c r="C2">
-        <v>0.2424242424242424</v>
+        <v>0.06510416666666667</v>
       </c>
       <c r="D2">
-        <v>0.5714285714285714</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="E2">
-        <v>0.3404255319148936</v>
+        <v>0.1213592233009709</v>
       </c>
       <c r="F2">
-        <v>0.449438202247191</v>
+        <v>0.2520161290322581</v>
       </c>
       <c r="G2">
-        <v>0.5430809399477807</v>
+        <v>0.5996309963099631</v>
       </c>
       <c r="H2">
-        <v>0.7388978063135366</v>
+        <v>0.8013643659711074</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J2">
-        <v>50</v>
+        <v>359</v>
       </c>
       <c r="K2">
-        <v>484</v>
+        <v>175</v>
       </c>
       <c r="L2">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9758064516129032</v>
+        <v>0.9831460674157303</v>
       </c>
       <c r="C2">
-        <v>0.9063670411985019</v>
+        <v>0.3277153558052435</v>
       </c>
       <c r="D2">
-        <v>0.9398058252427185</v>
+        <v>0.4915730337078651</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.2424242424242424</v>
+        <v>0.06510416666666667</v>
       </c>
       <c r="C3">
-        <v>0.5714285714285714</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="D3">
-        <v>0.3404255319148936</v>
+        <v>0.1213592233009709</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.8896797153024911</v>
+        <v>0.3558718861209965</v>
       </c>
       <c r="C4">
-        <v>0.8896797153024911</v>
+        <v>0.3558718861209965</v>
       </c>
       <c r="D4">
-        <v>0.8896797153024911</v>
+        <v>0.3558718861209965</v>
       </c>
       <c r="E4">
-        <v>0.8896797153024911</v>
+        <v>0.3558718861209965</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.6091153470185728</v>
+        <v>0.5241251170411985</v>
       </c>
       <c r="C5">
-        <v>0.7388978063135366</v>
+        <v>0.6102862493311931</v>
       </c>
       <c r="D5">
-        <v>0.640115678578806</v>
+        <v>0.306466128504418</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.939267836208486</v>
+        <v>0.937407325029656</v>
       </c>
       <c r="C6">
-        <v>0.8896797153024911</v>
+        <v>0.3558718861209965</v>
       </c>
       <c r="D6">
-        <v>0.9099434618740724</v>
+        <v>0.4731282175310092</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>484</v>
+        <v>175</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
